--- a/rrd/AppData/Lead_ExistingAccount.xlsx
+++ b/rrd/AppData/Lead_ExistingAccount.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8E70EB-B1A4-43A5-A6A4-D23D0F8EBBAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE33BD0B-5EFB-41DD-9E02-B27DFCE660A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExistingAccount_TC04" sheetId="1" r:id="rId1"/>
     <sheet name="ExistingAccount_TC05" sheetId="2" r:id="rId2"/>
+    <sheet name="ExistingAccountFilter_TC08" sheetId="3" r:id="rId3"/>
+    <sheet name="ExistingAccountFilter_TC09" sheetId="4" r:id="rId4"/>
+    <sheet name="ExistingAccountFilter_TC10" sheetId="5" r:id="rId5"/>
+    <sheet name="ExistingAccountFilter_TC11" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
   <si>
     <t>AccountName</t>
   </si>
@@ -56,6 +60,18 @@
   </si>
   <si>
     <t>Mirketa Test 2</t>
+  </si>
+  <si>
+    <t>EAF_TC08</t>
+  </si>
+  <si>
+    <t>EAF_TC09</t>
+  </si>
+  <si>
+    <t>EAF_TC10</t>
+  </si>
+  <si>
+    <t>EAF_TC11</t>
   </si>
 </sst>
 </file>
@@ -466,6 +482,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F13BA9-C666-4839-AE68-8EB6832EFDF2}">
   <dimension ref="A1:F2"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088D56D8-2FAC-45FC-881F-B91D0D203ACD}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE23F5EF-F3C1-48FD-871B-5A6E081688D4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BBDDBF-4927-4464-BD9C-D0AF1DFF7911}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB69CE2B-50DA-4284-A7F6-673913772F09}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -502,7 +729,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
